--- a/data/produtoshospitais.xlsx
+++ b/data/produtoshospitais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfsoa\Desktop\Nutri_Hospital\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F839448-92C9-4690-AB36-41BB3C2CC795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512EEA2C-4562-4230-8250-4930B125B555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="93435" yWindow="2640" windowWidth="18570" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="79530" yWindow="285" windowWidth="18570" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos_hospital" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>hospital_id</t>
-  </si>
   <si>
     <t>hospital_nome</t>
   </si>
@@ -32,6 +29,9 @@
   </si>
   <si>
     <t>quantidade</t>
+  </si>
+  <si>
+    <t>id_hospital</t>
   </si>
 </sst>
 </file>
@@ -374,23 +374,23 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
